--- a/src/main/resources/VISA/Buchungen.xlsx
+++ b/src/main/resources/VISA/Buchungen.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\eclipseWorkspaces\2019\konto2\accounting-excel\src\main\resources\VISA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="7692"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Betrag</t>
   </si>
@@ -409,11 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="C2" s="1">
-        <v>-100</v>
+        <v>-43.98</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>4</v>
@@ -483,12 +479,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>43832</v>
+        <v>43837</v>
       </c>
       <c r="C3" s="1">
-        <v>-200</v>
-      </c>
-      <c r="K3" s="8" t="s">
+        <v>327.45</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -497,12 +493,337 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>43832</v>
+        <v>43838</v>
       </c>
       <c r="C4" s="1">
-        <v>-300</v>
-      </c>
-      <c r="K4" s="8" t="s">
+        <v>-14.99</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43838</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43839</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-39.950000000000003</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43844</v>
+      </c>
+      <c r="C7" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43844</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-29.99</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43844</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-29.99</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43845</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43845</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-39.9</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43850</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-19.5</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43852</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-34</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43858</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43860</v>
+      </c>
+      <c r="C15" s="1">
+        <v>408.34</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43865</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43865</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-30</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43871</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-14.99</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43872</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-21.86</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43874</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-29.98</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43878</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43893</v>
+      </c>
+      <c r="C22" s="1">
+        <v>97.75</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-14.99</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43921</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24.94</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43929</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-14.99</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-24.94</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/VISA/Buchungen.xlsx
+++ b/src/main/resources/VISA/Buchungen.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\eclipseWorkspaces\2019\konto2\accounting-excel\src\main\resources\VISA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="7692"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Betrag</t>
   </si>
@@ -52,10 +56,31 @@
     <t>Zeitraum bis</t>
   </si>
   <si>
-    <t>Klapps</t>
-  </si>
-  <si>
-    <t>Babbs</t>
+    <t>Abrechnung</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Audible</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>Hauptkonto</t>
+  </si>
+  <si>
+    <t>Hauptreferenz</t>
   </si>
 </sst>
 </file>
@@ -405,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,12 +445,15 @@
     <col min="4" max="4" width="11.5546875" style="1"/>
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="35.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -444,23 +472,44 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -470,11 +519,11 @@
       <c r="C2" s="1">
         <v>-43.98</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -484,11 +533,11 @@
       <c r="C3" s="1">
         <v>327.45</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -498,11 +547,11 @@
       <c r="C4" s="1">
         <v>-14.99</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -512,11 +561,11 @@
       <c r="C5" s="1">
         <v>-15</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -526,11 +575,11 @@
       <c r="C6" s="1">
         <v>-39.950000000000003</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -540,11 +589,11 @@
       <c r="C7" s="1">
         <v>29.99</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -554,11 +603,11 @@
       <c r="C8" s="1">
         <v>-29.99</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -568,11 +617,11 @@
       <c r="C9" s="1">
         <v>-29.99</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -582,11 +631,11 @@
       <c r="C10" s="1">
         <v>-9.9499999999999993</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -596,11 +645,11 @@
       <c r="C11" s="1">
         <v>-39.9</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -610,11 +659,11 @@
       <c r="C12" s="1">
         <v>-19.5</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -624,11 +673,11 @@
       <c r="C13" s="1">
         <v>-34</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -638,11 +687,11 @@
       <c r="C14" s="1">
         <v>-8.9700000000000006</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -652,11 +701,11 @@
       <c r="C15" s="1">
         <v>408.34</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -666,11 +715,11 @@
       <c r="C16" s="1">
         <v>18</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -680,11 +729,11 @@
       <c r="C17" s="1">
         <v>-30</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -694,11 +743,11 @@
       <c r="C18" s="1">
         <v>-14.99</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -708,11 +757,11 @@
       <c r="C19" s="1">
         <v>-21.86</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -722,11 +771,11 @@
       <c r="C20" s="1">
         <v>-29.98</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -736,11 +785,11 @@
       <c r="C21" s="1">
         <v>-9.9499999999999993</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -750,11 +799,11 @@
       <c r="C22" s="1">
         <v>97.75</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -764,11 +813,11 @@
       <c r="C23" s="1">
         <v>-14.99</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -778,11 +827,11 @@
       <c r="C24" s="1">
         <v>-9.9499999999999993</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -792,11 +841,11 @@
       <c r="C25" s="1">
         <v>24.94</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -806,11 +855,11 @@
       <c r="C26" s="1">
         <v>-14.99</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -823,7 +872,7 @@
       <c r="D27" s="1">
         <v>-24.94</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="L27" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/VISA/Buchungen.xlsx
+++ b/src/main/resources/VISA/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Betrag</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Hauptreferenz</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>152</t>
   </si>
 </sst>
 </file>
@@ -432,9 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +531,9 @@
       <c r="C2" s="1">
         <v>-43.98</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
@@ -533,6 +548,9 @@
       <c r="C3" s="1">
         <v>327.45</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" s="8" t="s">
         <v>4</v>
       </c>
@@ -547,6 +565,9 @@
       <c r="C4" s="1">
         <v>-14.99</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
@@ -560,6 +581,9 @@
       </c>
       <c r="C5" s="1">
         <v>-15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>4</v>
@@ -575,6 +599,9 @@
       <c r="C6" s="1">
         <v>-39.950000000000003</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L6" s="8" t="s">
         <v>4</v>
       </c>
@@ -589,6 +616,9 @@
       <c r="C7" s="1">
         <v>29.99</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L7" s="8" t="s">
         <v>4</v>
       </c>
@@ -603,6 +633,9 @@
       <c r="C8" s="1">
         <v>-29.99</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>4</v>
       </c>
@@ -617,6 +650,9 @@
       <c r="C9" s="1">
         <v>-29.99</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L9" s="8" t="s">
         <v>4</v>
       </c>
@@ -631,6 +667,9 @@
       <c r="C10" s="1">
         <v>-9.9499999999999993</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L10" s="8" t="s">
         <v>4</v>
       </c>
@@ -645,6 +684,9 @@
       <c r="C11" s="1">
         <v>-39.9</v>
       </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
@@ -659,6 +701,9 @@
       <c r="C12" s="1">
         <v>-19.5</v>
       </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L12" s="8" t="s">
         <v>4</v>
       </c>
@@ -673,6 +718,9 @@
       <c r="C13" s="1">
         <v>-34</v>
       </c>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="8" t="s">
         <v>4</v>
       </c>
@@ -687,6 +735,9 @@
       <c r="C14" s="1">
         <v>-8.9700000000000006</v>
       </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L14" s="8" t="s">
         <v>4</v>
       </c>
@@ -701,6 +752,12 @@
       <c r="C15" s="1">
         <v>408.34</v>
       </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L15" s="8" t="s">
         <v>4</v>
       </c>
@@ -715,6 +772,9 @@
       <c r="C16" s="1">
         <v>18</v>
       </c>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L16" s="8" t="s">
         <v>4</v>
       </c>
@@ -729,6 +789,9 @@
       <c r="C17" s="1">
         <v>-30</v>
       </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>4</v>
       </c>
@@ -743,6 +806,9 @@
       <c r="C18" s="1">
         <v>-14.99</v>
       </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="8" t="s">
         <v>4</v>
       </c>
@@ -757,6 +823,9 @@
       <c r="C19" s="1">
         <v>-21.86</v>
       </c>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L19" s="8" t="s">
         <v>4</v>
       </c>
@@ -770,6 +839,9 @@
       </c>
       <c r="C20" s="1">
         <v>-29.98</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>4</v>
@@ -785,6 +857,9 @@
       <c r="C21" s="1">
         <v>-9.9499999999999993</v>
       </c>
+      <c r="G21" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L21" s="8" t="s">
         <v>4</v>
       </c>
@@ -799,6 +874,12 @@
       <c r="C22" s="1">
         <v>97.75</v>
       </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L22" s="8" t="s">
         <v>4</v>
       </c>
@@ -813,6 +894,9 @@
       <c r="C23" s="1">
         <v>-14.99</v>
       </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L23" s="8" t="s">
         <v>4</v>
       </c>
@@ -827,6 +911,9 @@
       <c r="C24" s="1">
         <v>-9.9499999999999993</v>
       </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L24" s="8" t="s">
         <v>4</v>
       </c>
@@ -841,6 +928,12 @@
       <c r="C25" s="1">
         <v>24.94</v>
       </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L25" s="8" t="s">
         <v>4</v>
       </c>
@@ -855,6 +948,9 @@
       <c r="C26" s="1">
         <v>-14.99</v>
       </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="8" t="s">
         <v>4</v>
       </c>
@@ -871,6 +967,9 @@
       </c>
       <c r="D27" s="1">
         <v>-24.94</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>4</v>

--- a/src/main/resources/VISA/Buchungen.xlsx
+++ b/src/main/resources/VISA/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>Betrag</t>
   </si>
@@ -84,15 +84,6 @@
   </si>
   <si>
     <t>VB</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>152</t>
   </si>
 </sst>
 </file>
@@ -145,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -162,6 +153,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -444,9 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,9 +452,9 @@
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -487,7 +481,7 @@
       <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -496,7 +490,7 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="9" t="s">
@@ -755,8 +749,8 @@
       <c r="G15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>20</v>
+      <c r="H15" s="11">
+        <v>48</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>4</v>
@@ -877,8 +871,8 @@
       <c r="G22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>21</v>
+      <c r="H22" s="11">
+        <v>98</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>4</v>
@@ -931,8 +925,8 @@
       <c r="G25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>22</v>
+      <c r="H25" s="11">
+        <v>152</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>4</v>

--- a/src/main/resources/VISA/Buchungen.xlsx
+++ b/src/main/resources/VISA/Buchungen.xlsx
@@ -439,8 +439,8 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,6 +545,9 @@
       <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="11">
+        <v>14</v>
+      </c>
       <c r="L3" s="8" t="s">
         <v>4</v>
       </c>
